--- a/doc/figures/Figure4/Figure4A.xlsx
+++ b/doc/figures/Figure4/Figure4A.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/figures/Figure4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A834E06E-2233-794C-A5B8-A7E30E85075D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98500DD-2946-3A42-A27D-AD38D5AB5C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="960" windowWidth="27640" windowHeight="15940"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Figure4A" sheetId="1" r:id="rId1"/>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.84144765125785803</v>
+        <v>0.85211805912083105</v>
       </c>
       <c r="C2">
-        <v>0.84386749166322395</v>
+        <v>0.85079087811607801</v>
       </c>
       <c r="D2">
-        <v>0.84144765187419202</v>
+        <v>0.85211805912083105</v>
       </c>
       <c r="E2">
-        <v>0.84023828432715997</v>
+        <v>0.85016626531850104</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/doc/figures/Figure4/Figure4A.xlsx
+++ b/doc/figures/Figure4/Figure4A.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamklie/Desktop/lab/projects/predictMEE/doc/figures/Figure4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B98500DD-2946-3A42-A27D-AD38D5AB5C2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679D7AC2-83B6-4044-B816-FC303D7D7FE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440"/>
+    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure4A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Accuracy</t>
   </si>
@@ -33,11 +33,14 @@
   <si>
     <t>F1 Score</t>
   </si>
+  <si>
+    <t>Micro-AUC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -871,14 +874,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -891,8 +896,11 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -907,6 +915,49 @@
       </c>
       <c r="E2">
         <v>0.85016626531850104</v>
+      </c>
+      <c r="F2">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.85211805912083105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0.85079087811607801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0.85211805912083105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0.85016626531850104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>0.97699999999999998</v>
       </c>
     </row>
   </sheetData>
